--- a/Plancheck/check_protocol/sein hypo.xlsx
+++ b/Plancheck/check_protocol/sein hypo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -372,9 +372,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Jaw Tracking</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>V16Gy&lt;15%</t>
+  </si>
+  <si>
+    <t>Jaw Tracking (NOVA)</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1473,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="17">
         <v>200</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="17">
         <v>200</v>
@@ -1929,10 +1929,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2022,12 +2022,12 @@
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L46" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L47" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2102,17 +2102,17 @@
         <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -2123,12 +2123,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,12 +2155,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -2289,37 +2289,37 @@
         <v>24</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2372,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>-1000</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>-300</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2409,7 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2461,55 +2461,55 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>126</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>127</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/check_protocol/sein hypo.xlsx
+++ b/Plancheck/check_protocol/sein hypo.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -171,9 +171,6 @@
     <t>grid_size</t>
   </si>
   <si>
-    <t>Algo_name</t>
-  </si>
-  <si>
     <t>AAA_15605New</t>
   </si>
   <si>
@@ -544,6 +541,24 @@
   </si>
   <si>
     <t>Jaw Tracking (NOVA)</t>
+  </si>
+  <si>
+    <t>sein hypo</t>
+  </si>
+  <si>
+    <t>Algo options</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCM</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCMForSRSAndHyperArc</t>
+  </si>
+  <si>
+    <t>FieldNormalizationType</t>
+  </si>
+  <si>
+    <t>HeterogeneityCorrection</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1104,7 @@
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1146,6 +1161,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1473,8 +1491,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1519,32 +1537,19 @@
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
       <c r="L2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
       <c r="L3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1561,12 +1566,12 @@
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
       <c r="L4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="20">
         <v>1</v>
@@ -1580,10 +1585,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1592,15 +1597,15 @@
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
       <c r="L6" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -1609,15 +1614,15 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -1628,10 +1633,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1640,15 +1645,15 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="L9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1657,7 +1662,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="L10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1671,10 +1676,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="17">
         <v>300</v>
@@ -1693,7 +1698,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="L12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1707,10 +1712,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1719,7 +1724,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="L14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,12 +1736,12 @@
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="L15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1746,15 +1751,15 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="L16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -1763,15 +1768,15 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
       <c r="L17" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -1780,15 +1785,15 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="L18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -1797,15 +1802,15 @@
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="L19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -1816,10 +1821,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -1828,15 +1833,15 @@
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="L21" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -1845,15 +1850,15 @@
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
       <c r="L22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -1862,15 +1867,15 @@
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
       <c r="L23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -1881,10 +1886,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -1895,7 +1900,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="17">
         <v>200</v>
@@ -1907,12 +1912,12 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="L26" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="17">
         <v>200</v>
@@ -1924,15 +1929,15 @@
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="L27" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -1941,93 +1946,127 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="L28" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="L30" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="14" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="14" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="14" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="14" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="14" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="14" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="14" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="14" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40" s="21"/>
       <c r="L40" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L43" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L44" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="14" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="14" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L47" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2074,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>$L$6:$L$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B31">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
@@ -2087,32 +2126,32 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -2123,12 +2162,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2139,12 +2178,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -2155,18 +2194,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -2174,13 +2213,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -2188,7 +2227,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -2196,7 +2235,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -2204,7 +2243,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2215,7 +2254,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -2226,7 +2265,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -2237,7 +2276,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -2274,52 +2313,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2327,7 +2366,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2357,44 +2396,44 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>-1000</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>-300</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2426,90 +2465,90 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
